--- a/biology/Zoologie/Cerf_cochon/Cerf_cochon.xlsx
+++ b/biology/Zoologie/Cerf_cochon/Cerf_cochon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Axis porcinus
 Le Cerf cochon (Axis porcinus) est une petite espèce de cervidés du genre axis.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les individus de cette espèce peuvent avoir une taille au garrot comprise entre 61 et 70 cm[1] tandis que la taille en longueur varie généralement entre 1,05 et 1,20 mètre, le tout pour une masse oscillant entre 30 et 50 kg.
-Les mâles ont des bois et les femelles n'ont pas de bois. Les femelles sont généralement moins grandes et moins lourdes que les mâles[2]. Le pelage des femelles, d'un brun rougeâtre en été, prend des teintes plus sombres en hiver tandis que le pelage des mâles est brun peu importe la saison[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les individus de cette espèce peuvent avoir une taille au garrot comprise entre 61 et 70 cm tandis que la taille en longueur varie généralement entre 1,05 et 1,20 mètre, le tout pour une masse oscillant entre 30 et 50 kg.
+Les mâles ont des bois et les femelles n'ont pas de bois. Les femelles sont généralement moins grandes et moins lourdes que les mâles. Le pelage des femelles, d'un brun rougeâtre en été, prend des teintes plus sombres en hiver tandis que le pelage des mâles est brun peu importe la saison.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'habitat du cerf cochon s'étend du Pakistan tout le long de la chaîne de l'Himalaya au sud-est asiatique. Il a également été introduit par les Européens en Australie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habitat du cerf cochon s'étend du Pakistan tout le long de la chaîne de l'Himalaya au sud-est asiatique. Il a également été introduit par les Européens en Australie.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les habitats principaux du cerf cochon sont les roselières situées dans les plaines inondables et les hautes prairies. Cet animal préfère éviter les forêts et peut également vivre dans des zones agricoles[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les habitats principaux du cerf cochon sont les roselières situées dans les plaines inondables et les hautes prairies. Cet animal préfère éviter les forêts et peut également vivre dans des zones agricoles.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cerf cochon se nourrit principalement d'herbes tendres et de feuilles qu'il mange durant les périodes les plus fraîches de la journée, afin de pouvoir digérer à l'ombre pendant les moments de la journée où la température est élevée[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cerf cochon se nourrit principalement d'herbes tendres et de feuilles qu'il mange durant les périodes les plus fraîches de la journée, afin de pouvoir digérer à l'ombre pendant les moments de la journée où la température est élevée.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis la fin XXe siècle, cette espèce a subi un déclin de sa population de 50 %[4],[2] et son aire de répartition a grandement diminué. Les principales causes de ce déclin sont la chasse intensive et la dégradation de son espace de vie[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la fin XXe siècle, cette espèce a subi un déclin de sa population de 50 %, et son aire de répartition a grandement diminué. Les principales causes de ce déclin sont la chasse intensive et la dégradation de son espace de vie.
 </t>
         </is>
       </c>
@@ -668,9 +690,11 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un programme de reproduction a été mis en place en Europe afin de préserver l'espèce et le 24 juin 2018, dans un parc animalier d'Auvergne, une naissance d'un cerf cochon a eu lieu[5],[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un programme de reproduction a été mis en place en Europe afin de préserver l'espèce et le 24 juin 2018, dans un parc animalier d'Auvergne, une naissance d'un cerf cochon a eu lieu,.
 </t>
         </is>
       </c>
@@ -699,9 +723,11 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les prédateurs de cette espèce sont principalement les tigres, les dholes et les léopards. Parfois, la panthère nébuleuse et le python birman attaquent également les cerfs cochons[7].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prédateurs de cette espèce sont principalement les tigres, les dholes et les léopards. Parfois, la panthère nébuleuse et le python birman attaquent également les cerfs cochons.
 </t>
         </is>
       </c>
